--- a/web/test.xlsx
+++ b/web/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="183">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">price_amazon</t>
   </si>
   <si>
+    <t xml:space="preserve">product_img</t>
+  </si>
+  <si>
     <t xml:space="preserve">Apple iPhone X (Silver, 64 GB)</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">64 GB ROM |14.73 cm (5.8 inch) Super Retina HD Display12MP + 12MP | 7MP Front CameraA11 Bionic Chip with 64-bit Architecture, Neural Engine, Embedded M11 Motion Coprocessor ProcessoriOS 13 CompatibleBrand Warranty of 1 Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Apple iPhone X (Space Gray, 64 GB)</t>
@@ -572,7 +578,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -602,6 +608,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -653,13 +665,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -679,18 +699,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,16 +726,19 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>83199</v>
@@ -723,16 +746,19 @@
       <c r="E2" s="0" t="n">
         <v>83199</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>76999</v>
@@ -740,16 +766,19 @@
       <c r="E3" s="0" t="n">
         <v>76999</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>84990</v>
@@ -757,16 +786,19 @@
       <c r="E4" s="0" t="n">
         <v>84990</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>74500</v>
@@ -774,16 +806,19 @@
       <c r="E5" s="0" t="n">
         <v>74500</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>24999</v>
@@ -791,16 +826,19 @@
       <c r="E6" s="0" t="n">
         <v>24999</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>24999</v>
@@ -808,16 +846,19 @@
       <c r="E7" s="0" t="n">
         <v>24999</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>24999</v>
@@ -825,16 +866,19 @@
       <c r="E8" s="0" t="n">
         <v>24999</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>33999</v>
@@ -842,16 +886,19 @@
       <c r="E9" s="0" t="n">
         <v>33999</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>33999</v>
@@ -859,16 +906,19 @@
       <c r="E10" s="0" t="n">
         <v>33999</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>33999</v>
@@ -876,16 +926,19 @@
       <c r="E11" s="0" t="n">
         <v>33999</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>47499</v>
@@ -893,16 +946,19 @@
       <c r="E12" s="0" t="n">
         <v>47499</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>23999</v>
@@ -910,16 +966,19 @@
       <c r="E13" s="0" t="n">
         <v>23999</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>64900</v>
@@ -927,16 +986,19 @@
       <c r="E14" s="0" t="n">
         <v>64900</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>49875</v>
@@ -944,16 +1006,19 @@
       <c r="E15" s="0" t="n">
         <v>49875</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>23999</v>
@@ -961,16 +1026,19 @@
       <c r="E16" s="0" t="n">
         <v>23999</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>49899</v>
@@ -978,16 +1046,19 @@
       <c r="E17" s="0" t="n">
         <v>49899</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>99900</v>
@@ -995,16 +1066,19 @@
       <c r="E18" s="0" t="n">
         <v>99900</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>58999</v>
@@ -1012,16 +1086,19 @@
       <c r="E19" s="0" t="n">
         <v>58999</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>99900</v>
@@ -1029,16 +1106,19 @@
       <c r="E20" s="0" t="n">
         <v>99900</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>123900</v>
@@ -1046,16 +1126,19 @@
       <c r="E21" s="0" t="n">
         <v>123900</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>50900</v>
@@ -1063,16 +1146,19 @@
       <c r="E22" s="0" t="n">
         <v>50900</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>52899</v>
@@ -1080,16 +1166,19 @@
       <c r="E23" s="0" t="n">
         <v>52899</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>64900</v>
@@ -1097,16 +1186,19 @@
       <c r="E24" s="0" t="n">
         <v>64900</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>54900</v>
@@ -1114,16 +1206,19 @@
       <c r="E25" s="0" t="n">
         <v>54900</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>44990</v>
@@ -1131,16 +1226,19 @@
       <c r="E26" s="0" t="n">
         <v>44990</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>109900</v>
@@ -1148,16 +1246,19 @@
       <c r="E27" s="0" t="n">
         <v>109900</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>60499</v>
@@ -1165,16 +1266,19 @@
       <c r="E28" s="0" t="n">
         <v>60499</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>39975</v>
@@ -1182,16 +1286,19 @@
       <c r="E29" s="0" t="n">
         <v>39975</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>73490</v>
@@ -1199,16 +1306,19 @@
       <c r="E30" s="0" t="n">
         <v>73490</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>54900</v>
@@ -1216,16 +1326,19 @@
       <c r="E31" s="0" t="n">
         <v>54900</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>134900</v>
@@ -1233,16 +1346,19 @@
       <c r="E32" s="0" t="n">
         <v>134900</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>39975</v>
@@ -1250,16 +1366,19 @@
       <c r="E33" s="0" t="n">
         <v>39975</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>103900</v>
@@ -1267,16 +1386,19 @@
       <c r="E34" s="0" t="n">
         <v>103900</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>64900</v>
@@ -1284,16 +1406,19 @@
       <c r="E35" s="0" t="n">
         <v>64900</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>21999</v>
@@ -1301,16 +1426,19 @@
       <c r="E36" s="0" t="n">
         <v>21999</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>21999</v>
@@ -1318,16 +1446,19 @@
       <c r="E37" s="0" t="n">
         <v>21999</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>23999</v>
@@ -1335,16 +1466,19 @@
       <c r="E38" s="0" t="n">
         <v>23999</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>32900</v>
@@ -1352,16 +1486,19 @@
       <c r="E39" s="0" t="n">
         <v>32900</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>44999</v>
@@ -1369,16 +1506,19 @@
       <c r="E40" s="0" t="n">
         <v>44999</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>61999</v>
@@ -1386,16 +1526,19 @@
       <c r="E41" s="0" t="n">
         <v>61999</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>82000</v>
@@ -1403,16 +1546,19 @@
       <c r="E42" s="0" t="n">
         <v>82000</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>38990</v>
@@ -1420,16 +1566,19 @@
       <c r="E43" s="0" t="n">
         <v>38990</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>32999</v>
@@ -1437,16 +1586,19 @@
       <c r="E44" s="0" t="n">
         <v>32999</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>49875</v>
@@ -1454,16 +1606,19 @@
       <c r="E45" s="0" t="n">
         <v>49875</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>32999</v>
@@ -1471,16 +1626,19 @@
       <c r="E46" s="0" t="n">
         <v>32999</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>24999</v>
@@ -1488,16 +1646,19 @@
       <c r="E47" s="0" t="n">
         <v>24999</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>32999</v>
@@ -1505,16 +1666,19 @@
       <c r="E48" s="0" t="n">
         <v>32999</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>131900</v>
@@ -1522,16 +1686,19 @@
       <c r="E49" s="0" t="n">
         <v>131900</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>41999</v>
@@ -1539,16 +1706,19 @@
       <c r="E50" s="0" t="n">
         <v>41999</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>79900</v>
@@ -1556,16 +1726,19 @@
       <c r="E51" s="0" t="n">
         <v>79900</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>54999</v>
@@ -1573,16 +1746,19 @@
       <c r="E52" s="0" t="n">
         <v>54999</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>49990</v>
@@ -1590,16 +1766,19 @@
       <c r="E53" s="0" t="n">
         <v>49990</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>61900</v>
@@ -1607,16 +1786,19 @@
       <c r="E54" s="0" t="n">
         <v>61900</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>33999</v>
@@ -1624,16 +1806,19 @@
       <c r="E55" s="0" t="n">
         <v>33999</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>91900</v>
@@ -1641,16 +1826,19 @@
       <c r="E56" s="0" t="n">
         <v>91900</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>49999</v>
@@ -1658,16 +1846,19 @@
       <c r="E57" s="0" t="n">
         <v>49999</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>31999</v>
@@ -1675,16 +1866,19 @@
       <c r="E58" s="0" t="n">
         <v>31999</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>49999</v>
@@ -1692,16 +1886,19 @@
       <c r="E59" s="0" t="n">
         <v>49999</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>16999</v>
@@ -1709,16 +1906,19 @@
       <c r="E60" s="0" t="n">
         <v>16999</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>43490</v>
@@ -1726,16 +1926,19 @@
       <c r="E61" s="0" t="n">
         <v>43490</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>91900</v>
@@ -1743,16 +1946,19 @@
       <c r="E62" s="0" t="n">
         <v>91900</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>44000</v>
@@ -1760,16 +1966,19 @@
       <c r="E63" s="0" t="n">
         <v>44000</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F63" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>41999</v>
@@ -1777,16 +1986,19 @@
       <c r="E64" s="0" t="n">
         <v>41999</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F64" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>31999</v>
@@ -1794,16 +2006,19 @@
       <c r="E65" s="0" t="n">
         <v>31999</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>59999</v>
@@ -1811,16 +2026,19 @@
       <c r="E66" s="0" t="n">
         <v>59999</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F66" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>16999</v>
@@ -1828,16 +2046,19 @@
       <c r="E67" s="0" t="n">
         <v>16999</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F67" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>16999</v>
@@ -1845,16 +2066,19 @@
       <c r="E68" s="0" t="n">
         <v>16999</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>59999</v>
@@ -1862,16 +2086,19 @@
       <c r="E69" s="0" t="n">
         <v>59999</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>16999</v>
@@ -1879,16 +2106,19 @@
       <c r="E70" s="0" t="n">
         <v>16999</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F70" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>37500</v>
@@ -1896,16 +2126,19 @@
       <c r="E71" s="0" t="n">
         <v>37500</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F71" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>13999</v>
@@ -1913,16 +2146,19 @@
       <c r="E72" s="0" t="n">
         <v>13999</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F72" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="C73" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>22900</v>
@@ -1930,16 +2166,19 @@
       <c r="E73" s="0" t="n">
         <v>22900</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F73" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>25000</v>
@@ -1947,16 +2186,19 @@
       <c r="E74" s="0" t="n">
         <v>25000</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>48999</v>
@@ -1964,16 +2206,19 @@
       <c r="E75" s="0" t="n">
         <v>48999</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>56999</v>
@@ -1981,16 +2226,19 @@
       <c r="E76" s="0" t="n">
         <v>56999</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>125</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>59999</v>
@@ -1998,16 +2246,19 @@
       <c r="E77" s="0" t="n">
         <v>59999</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>40849</v>
@@ -2015,16 +2266,19 @@
       <c r="E78" s="0" t="n">
         <v>40849</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F78" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>48999</v>
@@ -2032,16 +2286,19 @@
       <c r="E79" s="0" t="n">
         <v>48999</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F79" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>48999</v>
@@ -2049,16 +2306,19 @@
       <c r="E80" s="0" t="n">
         <v>48999</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>131</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>71500</v>
@@ -2066,16 +2326,19 @@
       <c r="E81" s="0" t="n">
         <v>71500</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F81" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>39999</v>
@@ -2083,16 +2346,19 @@
       <c r="E82" s="0" t="n">
         <v>39999</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F82" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>32999</v>
@@ -2100,16 +2366,19 @@
       <c r="E83" s="0" t="n">
         <v>32999</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F83" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>109900</v>
@@ -2117,16 +2386,19 @@
       <c r="E84" s="0" t="n">
         <v>109900</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F84" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>73999</v>
@@ -2134,16 +2406,19 @@
       <c r="E85" s="0" t="n">
         <v>73999</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F85" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>24490</v>
@@ -2151,16 +2426,19 @@
       <c r="E86" s="0" t="n">
         <v>24490</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F86" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>38500</v>
@@ -2168,16 +2446,19 @@
       <c r="E87" s="0" t="n">
         <v>38500</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F87" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>74900</v>
@@ -2185,16 +2466,19 @@
       <c r="E88" s="0" t="n">
         <v>74900</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F88" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>33999</v>
@@ -2202,16 +2486,19 @@
       <c r="E89" s="0" t="n">
         <v>33999</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F89" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>42900</v>
@@ -2219,16 +2506,19 @@
       <c r="E90" s="0" t="n">
         <v>42900</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F90" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>49999</v>
@@ -2236,16 +2526,19 @@
       <c r="E91" s="0" t="n">
         <v>49999</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F91" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>36499</v>
@@ -2253,16 +2546,19 @@
       <c r="E92" s="0" t="n">
         <v>36499</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F92" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>36990</v>
@@ -2270,16 +2566,19 @@
       <c r="E93" s="0" t="n">
         <v>36990</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F93" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>25999</v>
@@ -2287,16 +2586,19 @@
       <c r="E94" s="0" t="n">
         <v>25999</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F94" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>124900</v>
@@ -2304,16 +2606,19 @@
       <c r="E95" s="0" t="n">
         <v>124900</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F95" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>42900</v>
@@ -2321,16 +2626,19 @@
       <c r="E96" s="0" t="n">
         <v>42900</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F96" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>89900</v>
@@ -2338,16 +2646,19 @@
       <c r="E97" s="0" t="n">
         <v>89900</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F97" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>16999</v>
@@ -2355,16 +2666,19 @@
       <c r="E98" s="0" t="n">
         <v>16999</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F98" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>34900</v>
@@ -2372,16 +2686,19 @@
       <c r="E99" s="0" t="n">
         <v>34900</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F99" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>33999</v>
@@ -2389,16 +2706,19 @@
       <c r="E100" s="0" t="n">
         <v>33999</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F100" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>43750</v>
@@ -2406,16 +2726,19 @@
       <c r="E101" s="0" t="n">
         <v>43750</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F101" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>124900</v>
@@ -2423,16 +2746,19 @@
       <c r="E102" s="0" t="n">
         <v>124900</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F102" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>91900</v>
@@ -2440,16 +2766,19 @@
       <c r="E103" s="0" t="n">
         <v>91900</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F103" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>33999</v>
@@ -2457,16 +2786,19 @@
       <c r="E104" s="0" t="n">
         <v>33999</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F104" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>38500</v>
@@ -2474,16 +2806,19 @@
       <c r="E105" s="0" t="n">
         <v>38500</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F105" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>52000</v>
@@ -2491,16 +2826,19 @@
       <c r="E106" s="0" t="n">
         <v>52000</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F106" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>49000</v>
@@ -2508,16 +2846,19 @@
       <c r="E107" s="0" t="n">
         <v>49000</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F107" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>24490</v>
@@ -2525,16 +2866,19 @@
       <c r="E108" s="0" t="n">
         <v>24490</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F108" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>23990</v>
@@ -2542,16 +2886,19 @@
       <c r="E109" s="0" t="n">
         <v>23990</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F109" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>49599</v>
@@ -2559,16 +2906,19 @@
       <c r="E110" s="0" t="n">
         <v>49599</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F110" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>29990</v>
@@ -2576,8 +2926,123 @@
       <c r="E111" s="0" t="n">
         <v>29990</v>
       </c>
+      <c r="F111" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F5" r:id="rId4" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F7" r:id="rId6" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F8" r:id="rId7" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F9" r:id="rId8" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F10" r:id="rId9" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F11" r:id="rId10" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F12" r:id="rId11" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F13" r:id="rId12" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F14" r:id="rId13" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F15" r:id="rId14" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F16" r:id="rId15" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F17" r:id="rId16" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F18" r:id="rId17" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F19" r:id="rId18" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F20" r:id="rId19" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F21" r:id="rId20" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F22" r:id="rId21" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F23" r:id="rId22" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F24" r:id="rId23" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F25" r:id="rId24" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F26" r:id="rId25" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F27" r:id="rId26" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F28" r:id="rId27" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F29" r:id="rId28" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F30" r:id="rId29" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F31" r:id="rId30" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F32" r:id="rId31" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F33" r:id="rId32" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F34" r:id="rId33" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F35" r:id="rId34" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F36" r:id="rId35" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F37" r:id="rId36" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F38" r:id="rId37" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F39" r:id="rId38" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F40" r:id="rId39" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F41" r:id="rId40" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F42" r:id="rId41" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F43" r:id="rId42" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F44" r:id="rId43" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F45" r:id="rId44" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F46" r:id="rId45" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F47" r:id="rId46" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F48" r:id="rId47" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F49" r:id="rId48" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F50" r:id="rId49" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F51" r:id="rId50" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F52" r:id="rId51" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F53" r:id="rId52" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F54" r:id="rId53" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F55" r:id="rId54" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F56" r:id="rId55" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F57" r:id="rId56" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F58" r:id="rId57" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F59" r:id="rId58" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F60" r:id="rId59" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F61" r:id="rId60" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F62" r:id="rId61" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F63" r:id="rId62" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F64" r:id="rId63" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F65" r:id="rId64" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F66" r:id="rId65" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F67" r:id="rId66" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F68" r:id="rId67" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F69" r:id="rId68" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F70" r:id="rId69" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F71" r:id="rId70" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F72" r:id="rId71" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F73" r:id="rId72" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F74" r:id="rId73" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F75" r:id="rId74" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F76" r:id="rId75" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F77" r:id="rId76" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F78" r:id="rId77" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F79" r:id="rId78" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F80" r:id="rId79" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F81" r:id="rId80" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F82" r:id="rId81" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F83" r:id="rId82" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F84" r:id="rId83" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F85" r:id="rId84" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F86" r:id="rId85" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F87" r:id="rId86" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F88" r:id="rId87" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F89" r:id="rId88" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F90" r:id="rId89" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F91" r:id="rId90" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F92" r:id="rId91" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F93" r:id="rId92" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F94" r:id="rId93" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F95" r:id="rId94" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F96" r:id="rId95" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F97" r:id="rId96" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F98" r:id="rId97" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F99" r:id="rId98" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F100" r:id="rId99" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F101" r:id="rId100" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F102" r:id="rId101" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F103" r:id="rId102" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F104" r:id="rId103" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F105" r:id="rId104" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F106" r:id="rId105" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F107" r:id="rId106" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F108" r:id="rId107" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F109" r:id="rId108" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F110" r:id="rId109" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+    <hyperlink ref="F111" r:id="rId110" display="https://fdn2.gsmarena.com/vv/pics/apple/apple-iphone-x-new-1.jpg"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
